--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784D52FE-9A14-4592-A203-02F193580222}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D11D93-74C6-4F70-9DF6-E777AD58D5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="6405" windowWidth="28950" windowHeight="15915" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
   <si>
     <t>索引</t>
   </si>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗开始时{Rate}%的概率为己方全体提升{Value}点速度，持续{Duration}个行动回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed_Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,10 +292,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>释放消耗Mp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cross</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -352,14 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>伤害范围ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AttackRangeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -509,6 +493,71 @@
   </si>
   <si>
     <t>3-5十字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaoJi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TuCi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active_Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始时{Rate}%的概率为己方全体每回合额外增加{Value}点速度，持续{Duration}个行动回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效模式
+Now-立即生效
+EveryRound-每个行动回合生效一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放消耗Mp
+为0代表不用手动释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围ID
+非主动技能无需释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围ID
+非主动技能无需释放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -937,21 +986,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="8"/>
-    <col min="3" max="5" width="16.25" style="8" customWidth="1"/>
-    <col min="6" max="6" width="94.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="24.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="8" customWidth="1"/>
+    <col min="4" max="4" width="28.875" style="8" customWidth="1"/>
+    <col min="5" max="6" width="16.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="94.125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -962,19 +1013,22 @@
         <v>14</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -985,19 +1039,22 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="G2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1010,17 +1067,20 @@
       <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <f>C4*1000+B4</f>
         <v>1001</v>
@@ -1032,19 +1092,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <f>C5*1000+B5</f>
         <v>1002</v>
@@ -1056,19 +1119,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H5" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <f>C6*1000+B6</f>
         <v>2001</v>
@@ -1080,19 +1146,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H6" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>C7*1000+B7</f>
         <v>3001</v>
@@ -1104,19 +1173,22 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f>C8*1000+B8</f>
         <v>4001</v>
@@ -1128,15 +1200,18 @@
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="7">
+      <c r="H8" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1149,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1162,10 +1237,12 @@
     <col min="3" max="3" width="34.5" style="8" customWidth="1"/>
     <col min="4" max="4" width="42.625" style="8" customWidth="1"/>
     <col min="5" max="5" width="49" style="8" customWidth="1"/>
-    <col min="6" max="8" width="30.375" style="8" customWidth="1"/>
+    <col min="6" max="7" width="30.375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="81" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1188,10 +1265,13 @@
         <v>31</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -1205,7 +1285,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>18</v>
@@ -1214,10 +1294,13 @@
         <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1240,10 +1323,13 @@
         <v>10</v>
       </c>
       <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1254,7 +1340,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>26</v>
@@ -1265,11 +1351,14 @@
       <c r="G4" s="7">
         <v>100</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1289,11 +1378,14 @@
       <c r="G5" s="7">
         <v>100</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1315,11 +1407,14 @@
       <c r="G6" s="8">
         <v>100</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1339,46 +1434,52 @@
       <c r="G7" s="7">
         <v>100</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I7" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>37</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7">
         <v>100</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>26</v>
@@ -1389,8 +1490,11 @@
       <c r="G9" s="7">
         <v>100</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
+      <c r="H9" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
@@ -1404,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8261ED-1C2C-48C5-A243-F8CAB72E5481}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1421,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1438,16 +1542,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1479,10 +1583,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1497,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1515,10 +1619,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1533,10 +1637,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1551,10 +1655,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1569,10 +1673,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1587,10 +1691,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1605,10 +1709,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1622,12 +1726,6 @@
       <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
@@ -1640,12 +1738,6 @@
       <c r="C13" s="8">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
@@ -1658,12 +1750,6 @@
       <c r="C14" s="8">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
@@ -1676,12 +1762,6 @@
       <c r="C15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
@@ -1694,14 +1774,8 @@
       <c r="C16" s="8">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f t="shared" ref="A17:A19" si="3">B17*100+C17</f>
         <v>300102</v>
@@ -1712,14 +1786,8 @@
       <c r="C17" s="8">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f t="shared" si="3"/>
         <v>300103</v>
@@ -1730,14 +1798,8 @@
       <c r="C18" s="8">
         <v>3</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f t="shared" si="3"/>
         <v>300104</v>
@@ -1748,14 +1810,8 @@
       <c r="C19" s="8">
         <v>4</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>B20*100+C20</f>
         <v>400101</v>
@@ -1766,14 +1822,8 @@
       <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f t="shared" ref="A21:A23" si="4">B21*100+C21</f>
         <v>400102</v>
@@ -1784,14 +1834,8 @@
       <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f t="shared" si="4"/>
         <v>400103</v>
@@ -1802,14 +1846,8 @@
       <c r="C22" s="8">
         <v>3</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f t="shared" si="4"/>
         <v>400104</v>
@@ -1819,12 +1857,6 @@
       </c>
       <c r="C23" s="8">
         <v>4</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1837,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA07E80A-23B8-42DA-B46E-8D9FCE584A0D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1854,10 +1886,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>40</v>
@@ -1865,16 +1897,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1893,53 +1925,53 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1947,41 +1979,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -1989,41 +2021,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -2031,13 +2063,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
@@ -2045,13 +2077,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D11D93-74C6-4F70-9DF6-E777AD58D5F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BDAFBF-9334-4CD7-B37F-81FBC1562019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="6405" windowWidth="28950" windowHeight="15915" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>索引</t>
   </si>
@@ -536,28 +536,125 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EveryRound</t>
+    <t>释放消耗Mp
+为0代表不用手动释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击范围ID
+非主动技能无需释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害范围ID
+非主动技能无需释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>生效模式
 Now-立即生效
-EveryRound-每个行动回合生效一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放消耗Mp
-为0代表不用手动释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击范围ID
-非主动技能无需释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害范围ID
-非主动技能无需释放</t>
+Round-每个行动回合生效一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReleaseTerm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelfRound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引
+0-普攻特殊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JudgeInDemageRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否只在伤害范围内判断是否生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff效果名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成{Value}%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升{Value}点防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升{Value}点攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复{Value}%的伤兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合额外增加{Value}点速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次普通攻击有{Rate}%的概率再次攻击，造成{Value}%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,23 +1083,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="8"/>
     <col min="3" max="3" width="16.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="28.875" style="8" customWidth="1"/>
-    <col min="5" max="6" width="16.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="94.125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="24.625" style="8" customWidth="1"/>
+    <col min="4" max="5" width="28.875" style="8" customWidth="1"/>
+    <col min="6" max="7" width="16.25" style="8" customWidth="1"/>
+    <col min="8" max="8" width="94.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="24.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1013,22 +1110,25 @@
         <v>14</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1042,19 +1142,22 @@
         <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1070,17 +1173,20 @@
       <c r="E3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
         <f>C4*1000+B4</f>
         <v>1001</v>
@@ -1095,19 +1201,22 @@
         <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <f>C5*1000+B5</f>
         <v>1002</v>
@@ -1122,19 +1231,22 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <f>C6*1000+B6</f>
         <v>2001</v>
@@ -1149,19 +1261,22 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>C7*1000+B7</f>
         <v>3001</v>
@@ -1176,19 +1291,22 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f>C8*1000+B8</f>
         <v>4001</v>
@@ -1203,15 +1321,18 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <v>6</v>
       </c>
     </row>
@@ -1224,54 +1345,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="24" style="8" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="42.625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="49" style="8" customWidth="1"/>
-    <col min="6" max="7" width="30.375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="37.375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="30.375" style="8" customWidth="1"/>
+    <col min="2" max="3" width="24" style="8" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="8" customWidth="1"/>
+    <col min="5" max="6" width="32.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="42.625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="49" style="8" customWidth="1"/>
+    <col min="9" max="10" width="30.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="37.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="81" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
+    <row r="1" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>39</v>
       </c>
@@ -1279,221 +1410,331 @@
         <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>100</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>100</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="H5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="7">
+      <c r="I5" s="7">
         <v>100</v>
       </c>
-      <c r="G4" s="7">
+      <c r="J5" s="7">
         <v>100</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I4" s="7">
+      <c r="L5" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7">
+      <c r="J6" s="7">
         <v>100</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I5" s="7">
+      <c r="L6" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="12">
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <v>25</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="H7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="8">
+      <c r="I7" s="8">
         <v>100</v>
       </c>
-      <c r="G6" s="8">
+      <c r="J7" s="8">
         <v>100</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I6" s="8">
+      <c r="L7" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="7">
+      <c r="J8" s="7">
         <v>100</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I7" s="7">
+      <c r="L8" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="7">
+      <c r="J9" s="7">
         <v>100</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="7">
+      <c r="K9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L9" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="7">
+      <c r="I10" s="7">
         <v>100</v>
       </c>
-      <c r="G9" s="7">
+      <c r="J10" s="7">
         <v>100</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="7">
+      <c r="L10" s="7">
         <v>9999</v>
       </c>
     </row>
@@ -1508,7 +1749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8261ED-1C2C-48C5-A243-F8CAB72E5481}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -1531,10 +1772,10 @@
         <v>74</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BDAFBF-9334-4CD7-B37F-81FBC1562019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3EA37-BD8B-44F7-8FEF-DA84E0BA6BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillEffect" sheetId="2" r:id="rId2"/>
-    <sheet name="SkillLevel" sheetId="4" r:id="rId3"/>
+    <sheet name="SkillLevel" sheetId="4" r:id="rId2"/>
+    <sheet name="SkillEffect" sheetId="2" r:id="rId3"/>
     <sheet name="RangeFunction" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
   <si>
     <t>索引</t>
   </si>
@@ -84,14 +84,6 @@
   </si>
   <si>
     <t>名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型
-1-主动
-2-被动
-3-队伍
-4-连携</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -255,11 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>持续行动回合数
-0-技能释放时生效一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连携测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-1十字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-3十字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -521,18 +504,6 @@
   </si>
   <si>
     <t>TuCi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active_Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战斗开始时{Rate}%的概率为己方全体每回合额外增加{Value}点速度，持续{Duration}个行动回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,24 +530,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeforeRound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AfterAttack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效模式
-Now-立即生效
-Round-每个行动回合生效一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReleaseTerm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +608,41 @@
   </si>
   <si>
     <t>连</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗开始前{Rate}%的概率为己方全体每回合额外增加{Value}点速度，持续{Duration}个行动回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeforeStart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型
+1-主动
+2-被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自己的行动回合触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerInSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">持续行动回合数
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3横条</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1086,7 +1074,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1099,24 +1087,24 @@
     <col min="9" max="9" width="24.625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -1125,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -1133,28 +1121,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1180,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>9</v>
@@ -1201,16 +1189,16 @@
         <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>11</v>
@@ -1231,16 +1219,16 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
         <v>3</v>
@@ -1261,16 +1249,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="I6" s="7">
         <v>4</v>
@@ -1279,28 +1267,28 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <f>C7*1000+B7</f>
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="B7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="I7" s="7">
         <v>5</v>
@@ -1309,28 +1297,28 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <f>C8*1000+B8</f>
-        <v>4001</v>
+        <v>2003</v>
       </c>
       <c r="B8" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="7">
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I8" s="7">
         <v>6</v>
@@ -1344,413 +1332,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.25" style="8" customWidth="1"/>
-    <col min="2" max="3" width="24" style="8" customWidth="1"/>
-    <col min="4" max="4" width="64.5" style="8" customWidth="1"/>
-    <col min="5" max="6" width="32.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="42.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="49" style="8" customWidth="1"/>
-    <col min="9" max="10" width="30.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="37.375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="30.375" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="81" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>100</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100</v>
-      </c>
-      <c r="J4" s="7">
-        <v>100</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100</v>
-      </c>
-      <c r="J5" s="7">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="7">
-        <v>100</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>25</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="8">
-        <v>100</v>
-      </c>
-      <c r="J7" s="8">
-        <v>100</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="7">
-        <v>100</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="7">
-        <v>100</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7">
-        <v>100</v>
-      </c>
-      <c r="J10" s="7">
-        <v>100</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="7">
-        <v>9999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8261ED-1C2C-48C5-A243-F8CAB72E5481}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1766,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1783,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1824,10 +1410,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1842,10 +1428,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1860,10 +1446,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1878,10 +1464,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1896,10 +1482,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1914,10 +1500,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1932,10 +1518,10 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1950,10 +1536,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2007,10 +1593,10 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <f>B16*100+C16</f>
-        <v>300101</v>
+        <v>200201</v>
       </c>
       <c r="B16" s="8">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -2019,10 +1605,10 @@
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <f t="shared" ref="A17:A19" si="3">B17*100+C17</f>
-        <v>300102</v>
+        <v>200202</v>
       </c>
       <c r="B17" s="8">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="C17" s="8">
         <v>2</v>
@@ -2031,10 +1617,10 @@
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <f t="shared" si="3"/>
-        <v>300103</v>
+        <v>200203</v>
       </c>
       <c r="B18" s="8">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="C18" s="8">
         <v>3</v>
@@ -2043,10 +1629,10 @@
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <f t="shared" si="3"/>
-        <v>300104</v>
+        <v>200204</v>
       </c>
       <c r="B19" s="8">
-        <v>3001</v>
+        <v>2002</v>
       </c>
       <c r="C19" s="8">
         <v>4</v>
@@ -2055,10 +1641,10 @@
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <f>B20*100+C20</f>
-        <v>400101</v>
+        <v>200301</v>
       </c>
       <c r="B20" s="8">
-        <v>4001</v>
+        <v>2003</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -2067,10 +1653,10 @@
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <f t="shared" ref="A21:A23" si="4">B21*100+C21</f>
-        <v>400102</v>
+        <v>200302</v>
       </c>
       <c r="B21" s="8">
-        <v>4001</v>
+        <v>2003</v>
       </c>
       <c r="C21" s="8">
         <v>2</v>
@@ -2079,10 +1665,10 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <f t="shared" si="4"/>
-        <v>400103</v>
+        <v>200303</v>
       </c>
       <c r="B22" s="8">
-        <v>4001</v>
+        <v>2003</v>
       </c>
       <c r="C22" s="8">
         <v>3</v>
@@ -2091,10 +1677,10 @@
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="8">
         <f t="shared" si="4"/>
-        <v>400104</v>
+        <v>200304</v>
       </c>
       <c r="B23" s="8">
-        <v>4001</v>
+        <v>2003</v>
       </c>
       <c r="C23" s="8">
         <v>4</v>
@@ -2103,6 +1689,410 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="57.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.25" style="8" customWidth="1"/>
+    <col min="9" max="10" width="30.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="37.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>100</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>100</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>100</v>
+      </c>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="8">
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="7">
+        <v>100</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2110,8 +2100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA07E80A-23B8-42DA-B46E-8D9FCE584A0D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2127,27 +2117,27 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2166,53 +2156,53 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -2220,41 +2210,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -2262,41 +2252,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -2304,13 +2294,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
@@ -2318,13 +2308,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D3EA37-BD8B-44F7-8FEF-DA84E0BA6BC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4435C-CB9A-4192-8000-6C6D777F753C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="150">
   <si>
     <t>索引</t>
   </si>
@@ -203,18 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回血测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自己行动的回合有{Rate}%的概率为自己提升{Value}点攻击力，回合结束后失效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +219,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>队伍测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Speed_Up</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连携测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每次普通攻击有{Rate}%的概率再次攻击，造成{Value}%伤害，每个行动回合有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,16 +357,10 @@
   </si>
   <si>
     <t>Cross3x5</t>
-  </si>
-  <si>
-    <t>Cross3x5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cross5x3</t>
-  </si>
-  <si>
-    <t>Cross5x3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,14 +430,6 @@
   </si>
   <si>
     <t>15+1.5*($level-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x3矩形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5x7矩形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -629,10 +595,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否自己的行动回合触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TriggerInSelf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -642,7 +604,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3横条</t>
+    <t>3x5矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7x5矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度3纵向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否只再自己的行动回合触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妙手回春</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体提速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1073,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1095,16 +1089,16 @@
         <v>33</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>13</v>
@@ -1127,19 +1121,19 @@
         <v>12</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>40</v>
@@ -1168,7 +1162,7 @@
         <v>3</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>9</v>
@@ -1189,16 +1183,16 @@
         <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>11</v>
@@ -1219,13 +1213,13 @@
         <v>30</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>35</v>
@@ -1249,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I6" s="7">
         <v>4</v>
@@ -1279,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="I7" s="7">
         <v>5</v>
@@ -1309,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="7">
         <v>6</v>
@@ -1336,7 +1330,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1352,16 +1346,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1369,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1410,10 +1404,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -1428,10 +1422,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -1446,10 +1440,10 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1464,10 +1458,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1482,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1499,11 +1493,11 @@
       <c r="C9" s="8">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>83</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1517,11 +1511,11 @@
       <c r="C10" s="8">
         <v>3</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>85</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -1535,10 +1529,10 @@
       <c r="C11" s="8">
         <v>4</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1697,7 +1691,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1717,22 +1711,22 @@
   <sheetData>
     <row r="1" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>26</v>
@@ -1747,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1764,19 +1758,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>17</v>
@@ -1785,7 +1779,7 @@
         <v>29</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>28</v>
@@ -1837,10 +1831,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>22</v>
@@ -1875,10 +1869,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>22</v>
@@ -1887,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>25</v>
@@ -1913,10 +1907,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>23</v>
@@ -1949,10 +1943,10 @@
         <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -1984,13 +1978,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -1999,11 +1993,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J8" s="7">
         <v>100</v>
@@ -2020,13 +2014,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>36</v>
@@ -2035,11 +2029,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J9" s="7">
         <v>100</v>
@@ -2056,22 +2050,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>25</v>
@@ -2100,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA07E80A-23B8-42DA-B46E-8D9FCE584A0D}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2117,10 +2111,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>39</v>
@@ -2128,16 +2122,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2156,53 +2150,53 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -2210,41 +2204,41 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -2252,41 +2246,41 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D13" s="8">
         <v>2</v>
@@ -2294,13 +2288,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D14" s="8">
         <v>4</v>
@@ -2308,13 +2302,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8">
         <v>7</v>
@@ -2323,5 +2317,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CS\CS\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B4435C-CB9A-4192-8000-6C6D777F753C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688FDCD0-5865-4100-9628-DFB42BCAAC5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
-    <sheet name="SkillLevel" sheetId="4" r:id="rId2"/>
-    <sheet name="SkillEffect" sheetId="2" r:id="rId3"/>
+    <sheet name="SkillEffect" sheetId="2" r:id="rId2"/>
+    <sheet name="SkillLevel" sheetId="4" r:id="rId3"/>
     <sheet name="RangeFunction" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -628,15 +628,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全体提速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷霆一击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1189,7 +1189,7 @@
         <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>50</v>
@@ -1279,7 +1279,7 @@
         <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>135</v>
@@ -1309,7 +1309,7 @@
         <v>109</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>48</v>
@@ -1326,6 +1326,410 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="57.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="32.375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="37.25" style="8" customWidth="1"/>
+    <col min="9" max="10" width="30.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="37.375" style="8" customWidth="1"/>
+    <col min="12" max="12" width="30.375" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
+        <v>100</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7">
+        <v>100</v>
+      </c>
+      <c r="J4" s="7">
+        <v>100</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>100</v>
+      </c>
+      <c r="J5" s="7">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7">
+        <v>100</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
+        <v>25</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="8">
+        <v>100</v>
+      </c>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="7">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="7">
+        <v>100</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="7">
+        <v>100</v>
+      </c>
+      <c r="J10" s="7">
+        <v>100</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8261ED-1C2C-48C5-A243-F8CAB72E5481}">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1683,410 +2087,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4A6EF6-AE0D-4E3D-978E-23717E10AA7D}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="21.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="8" customWidth="1"/>
-    <col min="4" max="4" width="57.875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="26.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="27.875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="37.25" style="8" customWidth="1"/>
-    <col min="9" max="10" width="30.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="37.375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="30.375" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
-        <v>0</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="12">
-        <v>100</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7">
-        <v>100</v>
-      </c>
-      <c r="J4" s="7">
-        <v>100</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="7">
-        <v>100</v>
-      </c>
-      <c r="J5" s="7">
-        <v>100</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="7">
-        <v>100</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
-        <v>25</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="8">
-        <v>100</v>
-      </c>
-      <c r="J7" s="8">
-        <v>100</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="7">
-        <v>100</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="7">
-        <v>100</v>
-      </c>
-      <c r="K9" s="7">
-        <v>1</v>
-      </c>
-      <c r="L9" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="7">
-        <v>100</v>
-      </c>
-      <c r="J10" s="7">
-        <v>100</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
